--- a/assg_3.xlsx
+++ b/assg_3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamadreza.a\Downloads\course_scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GAMSStudio\workspace\course_scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7908" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="3" r:id="rId1"/>
@@ -382,13 +382,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -410,7 +410,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -430,7 +430,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -448,7 +448,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -469,7 +469,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -548,67 +548,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>21</v>
       </c>
@@ -622,13 +622,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -883,9 +883,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>7</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>7</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>8</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>8</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>8</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2238,13 +2238,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2581,18 +2581,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2602,26 +2602,8 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2632,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2643,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2654,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2665,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2676,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2687,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2698,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2709,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2720,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2731,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2742,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -2753,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2777,9 +2759,9 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2787,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2795,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2803,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2811,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2819,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2827,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2835,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2843,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2851,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2859,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2867,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2875,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2883,7 +2865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2891,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2899,7 +2881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2907,7 +2889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2915,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2923,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2931,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2939,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2947,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>

--- a/assg_3.xlsx
+++ b/assg_3.xlsx
@@ -382,7 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2581,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2592,7 @@
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2602,166 +2602,71 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
       <c r="C7">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
